--- a/ui-testsuite/src/main/resources/TestData/ATR_imported_UpdatePipeline_2.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/ATR_imported_UpdatePipeline_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thuy Quynh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Workspace\ui-test\ui-testsuite\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$FF$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$FF$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="232">
   <si>
     <t>IB TYPE</t>
   </si>
@@ -513,205 +513,211 @@
     <t>A</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>USD</t>
   </si>
   <si>
-    <t>SAAS</t>
-  </si>
-  <si>
     <t>Renewal</t>
   </si>
   <si>
     <t>2016</t>
   </si>
   <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>2016-H2</t>
-  </si>
-  <si>
     <t>RSR</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>INVALID FOR Q</t>
+  </si>
+  <si>
+    <t>TRAD</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>HPSW Standalone</t>
+  </si>
+  <si>
+    <t>ZCRN</t>
+  </si>
+  <si>
+    <t>E0001</t>
+  </si>
+  <si>
+    <t>ON TIME</t>
+  </si>
+  <si>
+    <t>APJ</t>
+  </si>
+  <si>
+    <t>Anniversary</t>
+  </si>
+  <si>
+    <t>NANO</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Change2</t>
+  </si>
+  <si>
+    <t>Change1</t>
+  </si>
+  <si>
+    <t>INDIA</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>LOBLV4TGTOTH</t>
+  </si>
+  <si>
+    <t>OTHER INDUSTRIES / TARGETED INDUSTRIES-OTHER</t>
+  </si>
+  <si>
+    <t>AUDEFAULT</t>
+  </si>
+  <si>
+    <t>AUDEFAULT - DEFAULT AMID - WW</t>
+  </si>
+  <si>
+    <t>43675516</t>
+  </si>
+  <si>
+    <t>ACCELYA KALE SOLUTIONS LIMITED</t>
+  </si>
+  <si>
+    <t>3RD FLOOR, MODI HOUSE,NAUPADA,</t>
+  </si>
+  <si>
+    <t>EASTERN EXPRESS HIGHWAY.THANE(W)</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>MH</t>
+  </si>
+  <si>
+    <t>400602</t>
+  </si>
+  <si>
+    <t>102361767747</t>
+  </si>
+  <si>
+    <t>15332722861215</t>
+  </si>
+  <si>
+    <t>MRCKALE</t>
+  </si>
+  <si>
+    <t>8S</t>
+  </si>
+  <si>
+    <t>TC/OX/01/063/2014-15</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>0501116881</t>
+  </si>
+  <si>
+    <t>MUMBAI</t>
+  </si>
+  <si>
+    <t>0003532431</t>
+  </si>
+  <si>
+    <t>2140053168</t>
+  </si>
+  <si>
+    <t>ITOM</t>
+  </si>
+  <si>
+    <t>ZB</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>2016-Q1</t>
+  </si>
+  <si>
+    <t>2016-H1</t>
+  </si>
+  <si>
+    <t>Santosh, Pandey</t>
+  </si>
+  <si>
     <t>9x5</t>
   </si>
   <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>Reversal</t>
+  </si>
+  <si>
+    <t>CARRYOVER</t>
+  </si>
+  <si>
     <t>INVALID</t>
   </si>
   <si>
-    <t>FUTURE</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>INVALID FOR Q</t>
-  </si>
-  <si>
-    <t>3/2/2016 4:38:15 PM +00:00</t>
-  </si>
-  <si>
-    <t>TRAD</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>HPSW Standalone</t>
-  </si>
-  <si>
-    <t>ZCRN</t>
-  </si>
-  <si>
-    <t>FM</t>
-  </si>
-  <si>
-    <t>E0001</t>
-  </si>
-  <si>
-    <t>Valid</t>
-  </si>
-  <si>
-    <t>QUOTED</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>2016-Q3</t>
-  </si>
-  <si>
-    <t>OPEN</t>
-  </si>
-  <si>
-    <t>TOP CAM</t>
-  </si>
-  <si>
-    <t>ON TIME</t>
-  </si>
-  <si>
-    <t>APJ</t>
-  </si>
-  <si>
-    <t>SOUTH PACIFIC</t>
-  </si>
-  <si>
-    <t>Brasch, Pauline</t>
-  </si>
-  <si>
-    <t>ZA</t>
-  </si>
-  <si>
-    <t>Anniversary</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>XXX753682830</t>
-  </si>
-  <si>
-    <t>AUSTRALIA AND NEW ZEALAND BANKING GROUP LIMITED</t>
-  </si>
-  <si>
-    <t>753682830</t>
-  </si>
-  <si>
-    <t>AU753682830</t>
-  </si>
-  <si>
-    <t>AUSTRALIA AND NEW ZEALAND BANKING GROUP LTD</t>
-  </si>
-  <si>
-    <t>0043646235</t>
-  </si>
-  <si>
-    <t>ANZ Banking Group Ltd</t>
-  </si>
-  <si>
-    <t>24/55 Collins Street</t>
-  </si>
-  <si>
-    <t>AU</t>
-  </si>
-  <si>
-    <t>VIC</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>106445198472</t>
-  </si>
-  <si>
-    <t>2027299066HPSW</t>
-  </si>
-  <si>
-    <t>HPSW SAAS ANZ1</t>
-  </si>
-  <si>
-    <t>C823-R17</t>
-  </si>
-  <si>
-    <t>AUD</t>
-  </si>
-  <si>
-    <t>0110701667</t>
-  </si>
-  <si>
-    <t>ANZ BANKING GROUP LTD</t>
-  </si>
-  <si>
-    <t>PO Box 6403</t>
-  </si>
-  <si>
-    <t>WEST FOOTSCRA</t>
-  </si>
-  <si>
-    <t>3012</t>
-  </si>
-  <si>
-    <t>0003320554</t>
-  </si>
-  <si>
-    <t>0003286863</t>
-  </si>
-  <si>
-    <t>2142523279</t>
-  </si>
-  <si>
-    <t>Langelaan, Amy</t>
-  </si>
-  <si>
-    <t>00492773</t>
-  </si>
-  <si>
-    <t>CCV</t>
-  </si>
-  <si>
-    <t>FFED82DF-595F-45E6-9F56-2E63CA891B5F</t>
-  </si>
-  <si>
-    <t>FF17DB39-5F54-475C-B13B-26F11F8AD812</t>
-  </si>
-  <si>
-    <t>FDE6D116-33DF-4E0E-BDF4-E6896C0EAC4A</t>
-  </si>
-  <si>
-    <t>0001</t>
-  </si>
-  <si>
-    <t>WON</t>
-  </si>
-  <si>
-    <t>AU753682835</t>
-  </si>
-  <si>
-    <t>ChangeData</t>
+    <t>4/15/2016 3:28:29 PM +00:00</t>
+  </si>
+  <si>
+    <t>change 3</t>
+  </si>
+  <si>
+    <t>change 1</t>
+  </si>
+  <si>
+    <t>change 2</t>
+  </si>
+  <si>
+    <t>NOT QUOTED</t>
+  </si>
+  <si>
+    <t>VALID</t>
+  </si>
+  <si>
+    <t>UPSET</t>
+  </si>
+  <si>
+    <t>Upsell - 9x5 to 24x7</t>
+  </si>
+  <si>
+    <t>24x7</t>
+  </si>
+  <si>
+    <t>nguyen.van.A</t>
+  </si>
+  <si>
+    <t>3333</t>
+  </si>
+  <si>
+    <t>6604629728</t>
+  </si>
+  <si>
+    <t>DB308D6D-CE76-413C-8D2C-5EF244C88B52</t>
+  </si>
+  <si>
+    <t>Tech Refresh</t>
+  </si>
+  <si>
+    <t>Duplicate opportunity</t>
   </si>
 </sst>
 </file>
@@ -815,7 +821,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -898,6 +904,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1179,173 +1186,173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FF4"/>
+  <dimension ref="A1:FF2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="DH1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="DV2" sqref="DV2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="2" width="13" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="15.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="19" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="20.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="13.28515625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="18" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="70.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="18" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="70.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="18" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="67.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="18" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="70.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="18" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="67.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="12.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="39.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="42.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="35.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="56.85546875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="35.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="31.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="19.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="18.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="22.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="14.7109375" style="12" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="12.7109375" style="12" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="10.5703125" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="19.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="11.85546875" style="12" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="12.7109375" style="12" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="14.5703125" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="19.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="17.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="36" max="37" width="21" style="10" customWidth="1" outlineLevel="1"/>
-    <col min="38" max="38" width="16.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="39" max="39" width="27.42578125" style="10" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="40" width="9.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="41" max="41" width="10.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="42" max="42" width="39.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="43" max="43" width="20.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="44" max="44" width="40" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="45" max="45" width="12.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="46" max="46" width="21.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="47" max="48" width="9.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="49" max="49" width="16.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="50" max="50" width="14.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="51" max="51" width="12.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="52" max="52" width="51.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="53" max="53" width="40.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="54" max="54" width="32.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="55" max="55" width="10.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="56" max="56" width="15.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="57" max="57" width="14.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="58" max="58" width="19" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="59" max="59" width="18.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="60" max="60" width="19.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="61" max="61" width="19.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="62" max="62" width="22.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="63" max="64" width="9.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="65" max="65" width="12.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="66" max="66" width="12.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="67" max="67" width="14.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="68" max="68" width="13" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="69" max="69" width="19.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="70" max="70" width="22.85546875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="71" max="71" width="17.28515625" style="12" customWidth="1" outlineLevel="1"/>
-    <col min="72" max="72" width="15.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="73" max="73" width="14.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="74" max="74" width="13.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="75" max="75" width="14.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="76" max="76" width="11.85546875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="77" max="77" width="11.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="78" max="78" width="13.85546875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="79" max="79" width="10.85546875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="80" max="80" width="22.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="81" max="81" width="31.5703125" style="10" customWidth="1"/>
-    <col min="82" max="82" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="13.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="84" max="84" width="9.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="85" max="85" width="10.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="86" max="86" width="14" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="87" max="87" width="22.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="88" max="88" width="27.28515625" style="10" customWidth="1"/>
-    <col min="89" max="89" width="14.42578125" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="90" max="90" width="17.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="91" max="91" width="27.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="92" max="92" width="31.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="93" max="93" width="51.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="94" max="94" width="9.140625" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="95" max="95" width="17.140625" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="96" max="96" width="15.5703125" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="97" max="97" width="24" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="98" max="98" width="24.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="99" max="99" width="19.7109375" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="100" max="100" width="21.42578125" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="101" max="101" width="15.85546875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="102" max="102" width="155.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="103" max="103" width="41.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="104" max="104" width="12.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="9.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="2" max="2" width="13" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="3" max="3" width="15.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="4" max="4" width="19" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="5" max="5" width="20.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="6" max="6" width="13.28515625" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="7" max="7" width="18" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="8" max="8" width="70.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="9" max="9" width="18" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="10" max="10" width="70.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="11" max="11" width="18" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="12" max="12" width="67.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="13" max="13" width="18" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="14" max="14" width="70.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="15" max="15" width="18" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="16" max="16" width="67.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="17" max="17" width="12.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="18" max="18" width="39.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="19" max="19" width="42.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="20" max="20" width="35.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="21" max="21" width="56.85546875" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="22" max="22" width="35.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="23" max="23" width="31.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="24" max="24" width="19.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="25" max="25" width="18.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="26" max="26" width="22.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="27" max="27" width="14.7109375" style="12" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="28" max="28" width="12.7109375" style="12" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="29" max="29" width="10.5703125" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="30" max="30" width="19.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="31" max="31" width="11.85546875" style="12" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="32" max="32" width="12.7109375" style="12" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="33" max="33" width="14.5703125" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="34" max="34" width="19.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="35" max="35" width="17.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="36" max="37" width="21" style="10" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="38" max="38" width="16.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="39" max="39" width="27.42578125" style="10" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="40" max="40" width="9.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="41" max="41" width="10.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="42" max="42" width="39.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="43" max="43" width="20.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="44" max="44" width="40" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="45" max="45" width="12.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="46" max="46" width="21.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="47" max="48" width="9.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="49" max="49" width="16.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="50" max="50" width="14.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="51" max="51" width="12.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="52" max="52" width="51.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="53" max="53" width="40.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="54" max="54" width="32.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="55" max="55" width="10.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="56" max="56" width="15.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="57" max="57" width="14.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="58" max="58" width="19" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="59" max="59" width="18.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="60" max="60" width="19.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="61" max="61" width="19.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="62" max="62" width="22.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="63" max="64" width="9.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="65" max="65" width="12.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="66" max="66" width="12.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="67" max="67" width="14.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="68" max="68" width="13" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="69" max="69" width="19.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="70" max="70" width="22.85546875" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="71" max="71" width="17.28515625" style="12" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="72" max="72" width="15.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="73" max="73" width="14.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="74" max="74" width="13.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="75" max="75" width="14.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="76" max="76" width="11.85546875" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="77" max="77" width="11.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="78" max="78" width="13.85546875" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="79" max="79" width="10.85546875" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="80" max="80" width="22.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="81" max="81" width="31.5703125" style="10" customWidth="1" collapsed="1"/>
+    <col min="82" max="82" width="21.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="83" max="83" width="13.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="84" max="84" width="32.28515625" style="1" bestFit="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="85" max="85" width="10.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="86" max="86" width="14" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="87" max="87" width="22.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="88" max="88" width="27.28515625" style="10" customWidth="1" collapsed="1"/>
+    <col min="89" max="89" width="14.42578125" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="90" max="90" width="17.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="91" max="91" width="27.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="92" max="92" width="31.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="93" max="93" width="51.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="94" max="94" width="9.140625" style="3" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="95" max="95" width="17.140625" style="4" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="96" max="96" width="15.5703125" style="4" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="97" max="97" width="24" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="98" max="98" width="24.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="99" max="99" width="19.7109375" style="4" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="100" max="100" width="21.42578125" style="4" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="101" max="101" width="15.85546875" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="102" max="102" width="155.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="103" max="103" width="41.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="104" max="104" width="12.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
     <col min="105" max="105" width="27.42578125" style="2" customWidth="1"/>
-    <col min="106" max="106" width="15.5703125" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="107" max="107" width="19.85546875" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="106" max="106" width="15.5703125" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="107" max="107" width="19.85546875" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
     <col min="108" max="108" width="17" style="12" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="16.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="15.140625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="111" max="111" width="25.28515625" style="17" customWidth="1" outlineLevel="1"/>
+    <col min="109" max="109" width="16.140625" style="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="110" max="110" width="15.140625" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="111" max="111" width="25.28515625" style="17" customWidth="1" outlineLevel="1" collapsed="1"/>
     <col min="112" max="112" width="22.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="18.42578125" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="114" max="114" width="17.28515625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="115" max="115" width="16.140625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="116" max="116" width="14" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="113" max="113" width="18.42578125" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="114" max="114" width="17.28515625" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="115" max="115" width="16.140625" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="116" max="116" width="14" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
     <col min="117" max="117" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="14.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="118" max="118" width="12" style="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="119" max="119" width="14.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
     <col min="120" max="120" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="16.85546875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="123" max="123" width="13.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="124" max="124" width="37.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="125" max="125" width="10.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="126" max="126" width="15.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="121" max="121" width="11" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="122" max="122" width="16.85546875" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="123" max="123" width="13.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="124" max="124" width="37.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="125" max="125" width="10.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="126" max="126" width="15.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
     <col min="127" max="127" width="25.7109375" style="10" customWidth="1"/>
-    <col min="128" max="128" width="22.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="129" max="129" width="29" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="130" max="130" width="23.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="131" max="131" width="16.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="132" max="132" width="23.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="128" max="128" width="22.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="129" max="129" width="29" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="130" max="130" width="23.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="131" max="131" width="16.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="132" max="132" width="23.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
     <col min="133" max="133" width="20.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="27.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="135" max="135" width="25.85546875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="136" max="136" width="12" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="137" max="137" width="15.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="138" max="138" width="20.7109375" style="21" customWidth="1" outlineLevel="1"/>
-    <col min="139" max="139" width="24.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="140" max="140" width="14.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="141" max="141" width="19" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="142" max="144" width="21.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="145" max="145" width="26.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="146" max="146" width="20.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="147" max="147" width="26.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="148" max="148" width="23.85546875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="149" max="149" width="22.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="150" max="150" width="32.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="151" max="151" width="15.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="152" max="152" width="13.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="153" max="153" width="28" style="12" customWidth="1" outlineLevel="1"/>
-    <col min="154" max="154" width="28.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="155" max="155" width="18.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="156" max="156" width="11.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="157" max="157" width="11.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="158" max="158" width="17.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="159" max="159" width="16.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="160" max="160" width="16.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="161" max="161" width="14.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="162" max="162" width="16.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="163" max="163" width="9.140625" style="1" customWidth="1"/>
-    <col min="164" max="16384" width="9.140625" style="1"/>
+    <col min="134" max="134" width="27.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="135" max="135" width="25.85546875" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="136" max="136" width="12" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="137" max="137" width="15.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="138" max="138" width="20.7109375" style="21" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="139" max="139" width="24.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="140" max="140" width="14.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="141" max="141" width="19" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="142" max="144" width="21.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="145" max="145" width="26.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="146" max="146" width="20.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="147" max="147" width="26.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="148" max="148" width="23.85546875" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="149" max="149" width="22.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="150" max="150" width="32.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="151" max="151" width="15.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="152" max="152" width="13.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="153" max="153" width="28" style="12" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="154" max="154" width="28.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="155" max="155" width="18.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="156" max="156" width="11.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="157" max="157" width="11.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="158" max="158" width="17.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="159" max="159" width="16.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="160" max="160" width="16.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="161" max="161" width="14.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="162" max="162" width="16.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="163" max="163" width="9.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="164" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:162" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1838,82 +1845,82 @@
     </row>
     <row r="2" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2100000065</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="Y2" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="AA2" s="12">
-        <v>42209</v>
+        <v>41974</v>
       </c>
       <c r="AB2" s="12">
-        <v>43304</v>
+        <v>42704</v>
       </c>
       <c r="AC2" s="2">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>162</v>
@@ -1922,247 +1929,280 @@
         <v>36494</v>
       </c>
       <c r="AF2" s="12">
-        <v>43305</v>
+        <v>42705</v>
       </c>
       <c r="AG2" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="AK2" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AM2" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="BS2" s="12">
+        <v>42339</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BV2" s="1">
+        <v>12</v>
+      </c>
+      <c r="BW2" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="BX2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BY2" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="AK2" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AM2" s="10" t="s">
+      <c r="BZ2" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AN2" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AR2" s="1" t="s">
+      <c r="CA2" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AS2" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AY2" s="1" t="s">
+      <c r="CD2" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="CF2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CK2" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="CL2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="CM2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="CN2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="CO2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="CP2" s="3">
+        <v>65</v>
+      </c>
+      <c r="CQ2" s="4">
+        <v>0</v>
+      </c>
+      <c r="CR2" s="4">
+        <v>0</v>
+      </c>
+      <c r="CS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU2" s="4">
+        <v>0</v>
+      </c>
+      <c r="CV2" s="4">
+        <v>0</v>
+      </c>
+      <c r="CW2" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="CX2" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="CY2" t="s">
+        <v>229</v>
+      </c>
+      <c r="CZ2" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="BC2" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="BR2" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="BS2" s="12">
-        <v>42575</v>
-      </c>
-      <c r="BT2" s="1" t="s">
+      <c r="DA2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="DB2" s="2">
+        <v>123456</v>
+      </c>
+      <c r="DC2" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="DD2" s="12">
+        <v>42340</v>
+      </c>
+      <c r="DE2" s="12">
+        <v>42341</v>
+      </c>
+      <c r="DF2" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="BV2" s="1">
-        <v>7</v>
-      </c>
-      <c r="BW2" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="BX2" s="1" t="s">
+      <c r="DG2" s="17">
+        <v>1</v>
+      </c>
+      <c r="DH2" s="17">
+        <v>1</v>
+      </c>
+      <c r="DI2" s="2">
+        <v>0</v>
+      </c>
+      <c r="DJ2" s="2">
+        <v>0</v>
+      </c>
+      <c r="DK2" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="DL2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="DM2" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="DN2" s="12">
+        <v>42339</v>
+      </c>
+      <c r="DO2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="DP2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="DQ2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="DR2" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="BY2" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="BZ2" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="CA2" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="CB2" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="CC2" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="CD2" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="CE2" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="CF2" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="CG2" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="CH2" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="CI2" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="CJ2" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="CL2" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="CP2" s="3">
-        <v>1.4065000000000001</v>
-      </c>
-      <c r="CQ2" s="4">
-        <v>1477726.8</v>
-      </c>
-      <c r="CR2" s="4">
-        <v>1050641.1660149307</v>
-      </c>
-      <c r="CU2" s="4">
-        <v>1050641.1660149307</v>
-      </c>
-      <c r="CV2" s="4">
-        <v>1477726.8</v>
-      </c>
-      <c r="CW2" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="CY2" s="1" t="s">
+      <c r="DS2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>230</v>
+      </c>
+      <c r="DU2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>231</v>
+      </c>
+      <c r="DW2" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="DX2" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="CZ2" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="DA2" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="DB2" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="DC2" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="DF2" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="DG2" s="17">
-        <v>0</v>
-      </c>
-      <c r="DH2" s="17">
-        <v>1477726.8</v>
-      </c>
-      <c r="DI2" s="2">
-        <v>1477726.8</v>
-      </c>
-      <c r="DJ2" s="2">
-        <v>1477726.8</v>
-      </c>
-      <c r="DK2" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="DL2" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="DM2" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="DN2" s="12">
-        <v>42575</v>
-      </c>
-      <c r="DO2" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="DP2" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DQ2" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DR2" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DS2" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DU2" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DW2" s="27" t="s">
-        <v>222</v>
+      <c r="DY2" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="DZ2" s="1">
         <v>0</v>
       </c>
       <c r="EA2" s="1">
-        <v>1055097.1040000001</v>
+        <v>0</v>
       </c>
       <c r="EB2" s="1">
-        <v>1055097.1040000001</v>
+        <v>0</v>
       </c>
       <c r="EC2" s="24">
-        <v>1055097.1040155366</v>
+        <v>0</v>
       </c>
       <c r="ED2" s="1">
-        <v>1477726.8</v>
+        <v>0</v>
       </c>
       <c r="EE2" s="1">
-        <v>1055097.1040000001</v>
+        <v>0</v>
       </c>
       <c r="EF2" s="1">
-        <v>1.40056</v>
+        <v>66.3</v>
       </c>
       <c r="EH2" s="21">
-        <v>42582</v>
+        <v>42369</v>
       </c>
       <c r="EI2" s="1" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="EJ2" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="EK2" s="1">
         <v>0</v>
@@ -2179,748 +2219,30 @@
       <c r="EO2" s="1">
         <v>0</v>
       </c>
-      <c r="EV2" s="1">
-        <v>1629</v>
+      <c r="EV2" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="EW2" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="EX2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="FA2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="FB2" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="EY2" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="EZ2" s="1" t="s">
-        <v>188</v>
+      <c r="FC2" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="FD2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="FE2" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="FE2" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:162" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2100000075</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AA3" s="12">
-        <v>42209</v>
-      </c>
-      <c r="AB3" s="12">
-        <v>43304</v>
-      </c>
-      <c r="AC3" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE3" s="12">
-        <v>36494</v>
-      </c>
-      <c r="AF3" s="12">
-        <v>43305</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="AJ3" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="AK3" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AM3" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="BO3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BP3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="BQ3" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="BR3" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="BS3" s="12">
-        <v>42575</v>
-      </c>
-      <c r="BT3" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="BV3" s="1">
-        <v>7</v>
-      </c>
-      <c r="BW3" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="BX3" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BY3" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="BZ3" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="CA3" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="CB3" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="CC3" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="CD3" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="CE3" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="CF3" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="CG3" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="CH3" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="CI3" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="CJ3" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="CL3" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="CP3" s="3">
-        <v>1.4065000000000001</v>
-      </c>
-      <c r="CQ3" s="4">
-        <v>1477726.8</v>
-      </c>
-      <c r="CR3" s="4">
-        <v>1050641.1660149307</v>
-      </c>
-      <c r="CU3" s="4">
-        <v>1050641.1660149307</v>
-      </c>
-      <c r="CV3" s="4">
-        <v>1477726.8</v>
-      </c>
-      <c r="CW3" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="CY3" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="CZ3" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="DA3" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="DC3" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="DF3" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="DG3" s="17">
-        <v>0</v>
-      </c>
-      <c r="DH3" s="17">
-        <v>1477726.8</v>
-      </c>
-      <c r="DI3" s="2">
-        <v>1477726.8</v>
-      </c>
-      <c r="DJ3" s="2">
-        <v>1477726.8</v>
-      </c>
-      <c r="DK3" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="DL3" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="DM3" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="DN3" s="12">
-        <v>42575</v>
-      </c>
-      <c r="DO3" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="DP3" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DQ3" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DR3" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DS3" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DU3" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DW3" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="DZ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="EA3" s="1">
-        <v>1055097.1040000001</v>
-      </c>
-      <c r="EB3" s="1">
-        <v>1055097.1040000001</v>
-      </c>
-      <c r="EC3" s="24">
-        <v>1055097.1040155366</v>
-      </c>
-      <c r="ED3" s="1">
-        <v>1477726.8</v>
-      </c>
-      <c r="EE3" s="1">
-        <v>1055097.1040000001</v>
-      </c>
-      <c r="EF3" s="1">
-        <v>1.40056</v>
-      </c>
-      <c r="EH3" s="21">
-        <v>42582</v>
-      </c>
-      <c r="EI3" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="EJ3" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="EK3" s="1">
-        <v>0</v>
-      </c>
-      <c r="EL3" s="1">
-        <v>0</v>
-      </c>
-      <c r="EM3" s="1">
-        <v>0</v>
-      </c>
-      <c r="EN3" s="1">
-        <v>0</v>
-      </c>
-      <c r="EO3" s="1">
-        <v>0</v>
-      </c>
-      <c r="EV3" s="1">
-        <v>1629</v>
-      </c>
-      <c r="EW3" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="EX3" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="EY3" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="EZ3" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="FD3" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="FE3" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:162" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F4" s="2">
-        <v>2100000085</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AA4" s="12">
-        <v>42209</v>
-      </c>
-      <c r="AB4" s="12">
-        <v>43304</v>
-      </c>
-      <c r="AC4" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE4" s="12">
-        <v>36494</v>
-      </c>
-      <c r="AF4" s="12">
-        <v>43305</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="AJ4" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="AK4" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AM4" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW4" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AZ4" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BA4" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="BB4" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="BC4" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="BD4" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="BF4" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="BG4" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="BI4" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="BO4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BP4" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="BQ4" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="BR4" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="BS4" s="12">
-        <v>42575</v>
-      </c>
-      <c r="BT4" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="BV4" s="1">
-        <v>7</v>
-      </c>
-      <c r="BW4" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="BX4" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BY4" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="BZ4" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="CA4" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="CB4" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="CC4" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="CD4" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="CE4" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="CF4" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="CG4" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="CH4" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="CI4" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="CJ4" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="CL4" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="CP4" s="3">
-        <v>1.4065000000000001</v>
-      </c>
-      <c r="CQ4" s="4">
-        <v>1477726.8</v>
-      </c>
-      <c r="CR4" s="4">
-        <v>1050641.1660149307</v>
-      </c>
-      <c r="CU4" s="4">
-        <v>1050641.1660149307</v>
-      </c>
-      <c r="CV4" s="4">
-        <v>1477726.8</v>
-      </c>
-      <c r="CW4" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="CY4" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="CZ4" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="DA4" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="DC4" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="DF4" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="DG4" s="17">
-        <v>0</v>
-      </c>
-      <c r="DH4" s="17">
-        <v>1477726.8</v>
-      </c>
-      <c r="DI4" s="2">
-        <v>1477726.8</v>
-      </c>
-      <c r="DJ4" s="2">
-        <v>1477726.8</v>
-      </c>
-      <c r="DK4" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="DL4" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="DM4" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="DN4" s="12">
-        <v>42575</v>
-      </c>
-      <c r="DO4" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="DP4" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DQ4" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DR4" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DS4" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DU4" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DW4" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="DZ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="EA4" s="1">
-        <v>1055097.1040000001</v>
-      </c>
-      <c r="EB4" s="1">
-        <v>1055097.1040000001</v>
-      </c>
-      <c r="EC4" s="24">
-        <v>1055097.1040155366</v>
-      </c>
-      <c r="ED4" s="1">
-        <v>1477726.8</v>
-      </c>
-      <c r="EE4" s="1">
-        <v>1055097.1040000001</v>
-      </c>
-      <c r="EF4" s="1">
-        <v>1.40056</v>
-      </c>
-      <c r="EH4" s="21">
-        <v>42582</v>
-      </c>
-      <c r="EI4" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="EJ4" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="EK4" s="1">
-        <v>0</v>
-      </c>
-      <c r="EL4" s="1">
-        <v>0</v>
-      </c>
-      <c r="EM4" s="1">
-        <v>0</v>
-      </c>
-      <c r="EN4" s="1">
-        <v>0</v>
-      </c>
-      <c r="EO4" s="1">
-        <v>0</v>
-      </c>
-      <c r="EV4" s="1">
-        <v>1629</v>
-      </c>
-      <c r="EW4" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="EX4" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="EY4" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="EZ4" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="FD4" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="FE4" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:FF4"/>
+  <autoFilter ref="A1:FF2"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ui-testsuite/src/main/resources/TestData/ATR_imported_UpdatePipeline_2.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/ATR_imported_UpdatePipeline_2.xlsx
@@ -162,9 +162,6 @@
     <t>Sales Metric Code Hdr</t>
   </si>
   <si>
-    <t>CSTM</t>
-  </si>
-  <si>
     <t>ELA</t>
   </si>
   <si>
@@ -718,6 +715,9 @@
   </si>
   <si>
     <t>Duplicate opportunity</t>
+  </si>
+  <si>
+    <t>EOT</t>
   </si>
 </sst>
 </file>
@@ -1188,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FF2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="DH1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="DV2" sqref="DV2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AQ1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AU2" sqref="AU2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1271,7 +1271,7 @@
     <col min="78" max="78" width="13.85546875" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
     <col min="79" max="79" width="10.85546875" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
     <col min="80" max="80" width="22.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="81" max="81" width="31.5703125" style="10" customWidth="1" collapsed="1"/>
+    <col min="81" max="81" width="31.5703125" style="10" customWidth="1"/>
     <col min="82" max="82" width="21.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="83" max="83" width="13.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
     <col min="84" max="84" width="32.28515625" style="1" bestFit="1" customWidth="1" outlineLevel="1" collapsed="1"/>
@@ -1495,423 +1495,423 @@
         <v>45</v>
       </c>
       <c r="AU1" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="AV1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AW1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AX1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AY1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="6" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="BA1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BB1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="6" t="s">
+      <c r="BC1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="6" t="s">
+      <c r="BD1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="6" t="s">
+      <c r="BE1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="6" t="s">
+      <c r="BF1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="6" t="s">
+      <c r="BG1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="6" t="s">
+      <c r="BH1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="6" t="s">
+      <c r="BI1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="6" t="s">
+      <c r="BJ1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="6" t="s">
+      <c r="BK1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="6" t="s">
+      <c r="BL1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="6" t="s">
+      <c r="BM1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="8" t="s">
+      <c r="BN1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="8" t="s">
+      <c r="BO1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="6" t="s">
+      <c r="BP1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="6" t="s">
+      <c r="BQ1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="6" t="s">
+      <c r="BR1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="6" t="s">
+      <c r="BS1" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="13" t="s">
+      <c r="BT1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="6" t="s">
+      <c r="BU1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="6" t="s">
+      <c r="BV1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="6" t="s">
+      <c r="BW1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="6" t="s">
+      <c r="BX1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="6" t="s">
+      <c r="BY1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="6" t="s">
+      <c r="BZ1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="6" t="s">
+      <c r="CA1" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="6" t="s">
+      <c r="CB1" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="6" t="s">
+      <c r="CC1" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="26" t="s">
+      <c r="CD1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="7" t="s">
+      <c r="CE1" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="8" t="s">
+      <c r="CF1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="8" t="s">
+      <c r="CG1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="6" t="s">
+      <c r="CH1" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="6" t="s">
+      <c r="CI1" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="6" t="s">
+      <c r="CJ1" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="26" t="s">
+      <c r="CK1" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="6" t="s">
+      <c r="CL1" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="6" t="s">
+      <c r="CM1" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="6" t="s">
+      <c r="CN1" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="6" t="s">
+      <c r="CO1" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="6" t="s">
+      <c r="CP1" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="6" t="s">
+      <c r="CQ1" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="6" t="s">
+      <c r="CR1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="6" t="s">
+      <c r="CS1" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="6" t="s">
+      <c r="CT1" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="6" t="s">
+      <c r="CU1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" s="6" t="s">
+      <c r="CV1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" s="6" t="s">
+      <c r="CW1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" s="6" t="s">
+      <c r="CX1" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" s="6" t="s">
+      <c r="CY1" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" s="7" t="s">
+      <c r="CZ1" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" s="7" t="s">
+      <c r="DA1" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" s="15" t="s">
+      <c r="DB1" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" s="15" t="s">
+      <c r="DC1" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" s="15" t="s">
+      <c r="DD1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" s="11" t="s">
+      <c r="DE1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" s="11" t="s">
+      <c r="DF1" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="DF1" s="15" t="s">
+      <c r="DG1" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="DG1" s="18" t="s">
+      <c r="DH1" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="DH1" s="18" t="s">
+      <c r="DI1" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="DI1" s="16" t="s">
+      <c r="DJ1" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="DJ1" s="16" t="s">
+      <c r="DK1" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" s="15" t="s">
+      <c r="DL1" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="DL1" s="8" t="s">
+      <c r="DM1" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="DM1" s="8" t="s">
+      <c r="DN1" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="DN1" s="11" t="s">
+      <c r="DO1" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="DO1" s="7" t="s">
+      <c r="DP1" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="DP1" s="8" t="s">
+      <c r="DQ1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="DQ1" s="8" t="s">
+      <c r="DR1" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="DR1" s="7" t="s">
+      <c r="DS1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="DS1" s="8" t="s">
+      <c r="DT1" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="DT1" s="8" t="s">
+      <c r="DU1" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="DU1" s="8" t="s">
+      <c r="DV1" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="DV1" s="8" t="s">
+      <c r="DW1" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="DW1" s="25" t="s">
+      <c r="DX1" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="DX1" s="8" t="s">
+      <c r="DY1" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="DY1" s="8" t="s">
+      <c r="DZ1" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="DZ1" s="7" t="s">
+      <c r="EA1" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="EA1" s="7" t="s">
+      <c r="EB1" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="EB1" s="7" t="s">
+      <c r="EC1" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="EC1" s="23" t="s">
+      <c r="ED1" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="ED1" s="7" t="s">
+      <c r="EE1" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="EE1" s="7" t="s">
+      <c r="EF1" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="EF1" s="7" t="s">
+      <c r="EG1" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="EG1" s="7" t="s">
+      <c r="EH1" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="EH1" s="20" t="s">
+      <c r="EI1" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="EI1" s="7" t="s">
+      <c r="EJ1" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="EJ1" s="7" t="s">
+      <c r="EK1" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="EK1" s="7" t="s">
+      <c r="EL1" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="EL1" s="7" t="s">
+      <c r="EM1" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="EM1" s="7" t="s">
+      <c r="EN1" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="EN1" s="7" t="s">
+      <c r="EO1" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="EO1" s="7" t="s">
+      <c r="EP1" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="EP1" s="9" t="s">
+      <c r="EQ1" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="EQ1" s="9" t="s">
+      <c r="ER1" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="ER1" s="9" t="s">
+      <c r="ES1" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="ES1" s="9" t="s">
+      <c r="ET1" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="ET1" s="9" t="s">
+      <c r="EU1" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="EU1" s="9" t="s">
+      <c r="EV1" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="EV1" s="7" t="s">
+      <c r="EW1" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="EW1" s="19" t="s">
+      <c r="EX1" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="EX1" s="6" t="s">
+      <c r="EY1" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="EY1" s="6" t="s">
+      <c r="EZ1" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="EZ1" s="6" t="s">
+      <c r="FA1" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="FA1" s="8" t="s">
+      <c r="FB1" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="FB1" s="8" t="s">
+      <c r="FC1" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="FC1" s="8" t="s">
+      <c r="FD1" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="FD1" s="7" t="s">
+      <c r="FE1" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="FE1" s="7" t="s">
+      <c r="FF1" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="FF1" s="6" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="AA2" s="12">
         <v>41974</v>
@@ -1923,7 +1923,7 @@
         <v>24</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AE2" s="12">
         <v>36494</v>
@@ -1932,139 +1932,139 @@
         <v>42705</v>
       </c>
       <c r="AG2" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AK2" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM2" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="AK2" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS2" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AM2" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AS2" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AX2" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AX2" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="BR2" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BS2" s="12">
         <v>42339</v>
       </c>
       <c r="BT2" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BV2" s="1">
         <v>12</v>
       </c>
       <c r="BW2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="BX2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BY2" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="BX2" s="1" t="s">
+      <c r="BZ2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="CD2" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="CF2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="CG2" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="BY2" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="BZ2" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="CA2" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="CD2" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="CE2" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="CF2" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="CG2" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="CH2" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="CL2" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="CM2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="CN2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="CO2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="CP2" s="3">
         <v>65</v>
@@ -2088,25 +2088,25 @@
         <v>0</v>
       </c>
       <c r="CW2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="CX2" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="CX2" s="1" t="s">
+      <c r="CY2" t="s">
+        <v>228</v>
+      </c>
+      <c r="CZ2" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="CY2" t="s">
-        <v>229</v>
-      </c>
-      <c r="CZ2" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="DA2" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="DB2" s="2">
         <v>123456</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="DD2" s="12">
         <v>42340</v>
@@ -2115,7 +2115,7 @@
         <v>42341</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="DG2" s="17">
         <v>1</v>
@@ -2130,49 +2130,49 @@
         <v>0</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="DL2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="DM2" s="22" t="s">
         <v>221</v>
-      </c>
-      <c r="DM2" s="22" t="s">
-        <v>222</v>
       </c>
       <c r="DN2" s="12">
         <v>42339</v>
       </c>
       <c r="DO2" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="DP2" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="DQ2" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="DR2" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="DS2" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="DT2" t="s">
+        <v>229</v>
+      </c>
+      <c r="DU2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="DV2" t="s">
         <v>230</v>
       </c>
-      <c r="DU2" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>231</v>
-      </c>
       <c r="DW2" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="DX2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="DY2" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="DY2" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="DZ2" s="1">
         <v>0</v>
@@ -2199,10 +2199,10 @@
         <v>42369</v>
       </c>
       <c r="EI2" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="EJ2" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="EK2" s="1">
         <v>0</v>
@@ -2220,25 +2220,25 @@
         <v>0</v>
       </c>
       <c r="EV2" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="EW2" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="FA2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="FB2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="FC2" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="FA2" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="FB2" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="FC2" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="FD2" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="FE2" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/ui-testsuite/src/main/resources/TestData/ATR_imported_UpdatePipeline_2.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/ATR_imported_UpdatePipeline_2.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$FF$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$FF$4</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="232">
   <si>
     <t>IB TYPE</t>
   </si>
@@ -162,6 +162,9 @@
     <t>Sales Metric Code Hdr</t>
   </si>
   <si>
+    <t>CSTM</t>
+  </si>
+  <si>
     <t>ELA</t>
   </si>
   <si>
@@ -510,24 +513,48 @@
     <t>A</t>
   </si>
   <si>
+    <t>E</t>
+  </si>
+  <si>
     <t>USD</t>
   </si>
   <si>
+    <t>SAAS</t>
+  </si>
+  <si>
     <t>Renewal</t>
   </si>
   <si>
     <t>2016</t>
   </si>
   <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>2016-H2</t>
+  </si>
+  <si>
     <t>RSR</t>
   </si>
   <si>
+    <t>9x5</t>
+  </si>
+  <si>
+    <t>INVALID</t>
+  </si>
+  <si>
+    <t>FUTURE</t>
+  </si>
+  <si>
     <t>NO</t>
   </si>
   <si>
     <t>INVALID FOR Q</t>
   </si>
   <si>
+    <t>3/2/2016 4:38:15 PM +00:00</t>
+  </si>
+  <si>
     <t>TRAD</t>
   </si>
   <si>
@@ -540,184 +567,157 @@
     <t>ZCRN</t>
   </si>
   <si>
+    <t>FM</t>
+  </si>
+  <si>
     <t>E0001</t>
   </si>
   <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>QUOTED</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>2016-Q3</t>
+  </si>
+  <si>
+    <t>OPEN</t>
+  </si>
+  <si>
+    <t>TOP CAM</t>
+  </si>
+  <si>
     <t>ON TIME</t>
   </si>
   <si>
     <t>APJ</t>
   </si>
   <si>
+    <t>SOUTH PACIFIC</t>
+  </si>
+  <si>
+    <t>Brasch, Pauline</t>
+  </si>
+  <si>
+    <t>ZA</t>
+  </si>
+  <si>
     <t>Anniversary</t>
   </si>
   <si>
-    <t>NANO</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>Change2</t>
-  </si>
-  <si>
-    <t>Change1</t>
-  </si>
-  <si>
-    <t>INDIA</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>LOBLV4TGTOTH</t>
-  </si>
-  <si>
-    <t>OTHER INDUSTRIES / TARGETED INDUSTRIES-OTHER</t>
-  </si>
-  <si>
-    <t>AUDEFAULT</t>
-  </si>
-  <si>
-    <t>AUDEFAULT - DEFAULT AMID - WW</t>
-  </si>
-  <si>
-    <t>43675516</t>
-  </si>
-  <si>
-    <t>ACCELYA KALE SOLUTIONS LIMITED</t>
-  </si>
-  <si>
-    <t>3RD FLOOR, MODI HOUSE,NAUPADA,</t>
-  </si>
-  <si>
-    <t>EASTERN EXPRESS HIGHWAY.THANE(W)</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>MH</t>
-  </si>
-  <si>
-    <t>400602</t>
-  </si>
-  <si>
-    <t>102361767747</t>
-  </si>
-  <si>
-    <t>15332722861215</t>
-  </si>
-  <si>
-    <t>MRCKALE</t>
-  </si>
-  <si>
-    <t>8S</t>
-  </si>
-  <si>
-    <t>TC/OX/01/063/2014-15</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>INR</t>
-  </si>
-  <si>
-    <t>0501116881</t>
-  </si>
-  <si>
-    <t>MUMBAI</t>
-  </si>
-  <si>
-    <t>0003532431</t>
-  </si>
-  <si>
-    <t>2140053168</t>
-  </si>
-  <si>
-    <t>ITOM</t>
-  </si>
-  <si>
-    <t>ZB</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>2016-Q1</t>
-  </si>
-  <si>
-    <t>2016-H1</t>
-  </si>
-  <si>
-    <t>Santosh, Pandey</t>
-  </si>
-  <si>
-    <t>9x5</t>
-  </si>
-  <si>
-    <t>Invalid</t>
-  </si>
-  <si>
-    <t>Reversal</t>
-  </si>
-  <si>
-    <t>CARRYOVER</t>
-  </si>
-  <si>
-    <t>INVALID</t>
-  </si>
-  <si>
-    <t>4/15/2016 3:28:29 PM +00:00</t>
-  </si>
-  <si>
-    <t>change 3</t>
-  </si>
-  <si>
-    <t>change 1</t>
-  </si>
-  <si>
-    <t>change 2</t>
-  </si>
-  <si>
-    <t>NOT QUOTED</t>
-  </si>
-  <si>
-    <t>VALID</t>
-  </si>
-  <si>
-    <t>UPSET</t>
-  </si>
-  <si>
-    <t>Upsell - 9x5 to 24x7</t>
-  </si>
-  <si>
-    <t>24x7</t>
-  </si>
-  <si>
-    <t>nguyen.van.A</t>
-  </si>
-  <si>
-    <t>3333</t>
-  </si>
-  <si>
-    <t>6604629728</t>
-  </si>
-  <si>
-    <t>DB308D6D-CE76-413C-8D2C-5EF244C88B52</t>
-  </si>
-  <si>
-    <t>Tech Refresh</t>
-  </si>
-  <si>
-    <t>Duplicate opportunity</t>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>XXX753682830</t>
+  </si>
+  <si>
+    <t>AUSTRALIA AND NEW ZEALAND BANKING GROUP LIMITED</t>
+  </si>
+  <si>
+    <t>753682830</t>
+  </si>
+  <si>
+    <t>AU753682830</t>
+  </si>
+  <si>
+    <t>AUSTRALIA AND NEW ZEALAND BANKING GROUP LTD</t>
+  </si>
+  <si>
+    <t>0043646235</t>
+  </si>
+  <si>
+    <t>ANZ Banking Group Ltd</t>
+  </si>
+  <si>
+    <t>24/55 Collins Street</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>VIC</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>106445198472</t>
+  </si>
+  <si>
+    <t>2027299066HPSW</t>
+  </si>
+  <si>
+    <t>HPSW SAAS ANZ1</t>
+  </si>
+  <si>
+    <t>C823-R17</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>0110701667</t>
+  </si>
+  <si>
+    <t>ANZ BANKING GROUP LTD</t>
+  </si>
+  <si>
+    <t>PO Box 6403</t>
+  </si>
+  <si>
+    <t>WEST FOOTSCRA</t>
+  </si>
+  <si>
+    <t>3012</t>
+  </si>
+  <si>
+    <t>0003320554</t>
+  </si>
+  <si>
+    <t>0003286863</t>
+  </si>
+  <si>
+    <t>2142523279</t>
+  </si>
+  <si>
+    <t>Langelaan, Amy</t>
+  </si>
+  <si>
+    <t>00492773</t>
+  </si>
+  <si>
+    <t>CCV</t>
+  </si>
+  <si>
+    <t>FFED82DF-595F-45E6-9F56-2E63CA891B5F</t>
+  </si>
+  <si>
+    <t>FF17DB39-5F54-475C-B13B-26F11F8AD812</t>
+  </si>
+  <si>
+    <t>FDE6D116-33DF-4E0E-BDF4-E6896C0EAC4A</t>
+  </si>
+  <si>
+    <t>WON</t>
+  </si>
+  <si>
+    <t>AU753682835</t>
+  </si>
+  <si>
+    <t>ChangeData</t>
   </si>
   <si>
     <t>EOT</t>
+  </si>
+  <si>
+    <t>Hello test 15/07/2-16</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -729,7 +729,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -746,6 +746,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -758,6 +759,18 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -821,7 +834,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -904,7 +917,11 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1186,173 +1203,173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FF2"/>
+  <dimension ref="A1:FF4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AQ1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AU2" sqref="AU2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="CU1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="CV3" sqref="CV3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="2" max="2" width="13" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="3" max="3" width="15.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="4" max="4" width="19" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="5" max="5" width="20.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="6" max="6" width="13.28515625" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="7" max="7" width="18" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="8" max="8" width="70.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="9" max="9" width="18" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="10" max="10" width="70.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="11" max="11" width="18" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="12" max="12" width="67.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="13" max="13" width="18" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="14" max="14" width="70.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="15" max="15" width="18" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="16" max="16" width="67.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="17" max="17" width="12.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="18" max="18" width="39.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="19" max="19" width="42.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="20" max="20" width="35.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="21" max="21" width="56.85546875" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="22" max="22" width="35.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="23" max="23" width="31.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="24" max="24" width="19.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="25" max="25" width="18.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="26" max="26" width="22.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="27" max="27" width="14.7109375" style="12" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="28" max="28" width="12.7109375" style="12" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="29" max="29" width="10.5703125" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="30" max="30" width="19.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="31" max="31" width="11.85546875" style="12" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="32" max="32" width="12.7109375" style="12" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="33" max="33" width="14.5703125" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="34" max="34" width="19.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="35" max="35" width="17.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="36" max="37" width="21" style="10" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="38" max="38" width="16.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="39" max="39" width="27.42578125" style="10" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="40" max="40" width="9.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="41" max="41" width="10.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="42" max="42" width="39.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="43" max="43" width="20.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="44" max="44" width="40" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="45" max="45" width="12.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="46" max="46" width="21.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="47" max="48" width="9.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="49" max="49" width="16.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="50" max="50" width="14.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="51" max="51" width="12.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="52" max="52" width="51.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="53" max="53" width="40.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="54" max="54" width="32.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="55" max="55" width="10.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="56" max="56" width="15.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="57" max="57" width="14.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="58" max="58" width="19" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="59" max="59" width="18.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="60" max="60" width="19.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="61" max="61" width="19.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="62" max="62" width="22.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="63" max="64" width="9.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="65" max="65" width="12.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="66" max="66" width="12.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="67" max="67" width="14.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="68" max="68" width="13" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="69" max="69" width="19.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="70" max="70" width="22.85546875" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="71" max="71" width="17.28515625" style="12" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="72" max="72" width="15.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="73" max="73" width="14.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="74" max="74" width="13.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="75" max="75" width="14.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="76" max="76" width="11.85546875" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="77" max="77" width="11.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="78" max="78" width="13.85546875" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="79" max="79" width="10.85546875" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="80" max="80" width="22.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="1" max="1" width="9.42578125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="13" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="15.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="19" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="20.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="13.28515625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="18" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="70.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="18" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="70.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="18" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="67.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="18" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="70.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="18" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="67.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="12.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="39.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="42.42578125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="35.42578125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="56.85546875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="35.42578125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="31.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="19.42578125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="18.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="22.42578125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="14.7109375" style="12" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="12.7109375" style="12" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="10.5703125" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="19.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="11.85546875" style="12" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="12.7109375" style="12" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="14.5703125" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="19.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="17.42578125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="37" width="21" style="10" customWidth="1" outlineLevel="1"/>
+    <col min="38" max="38" width="16.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="39" max="39" width="27.42578125" style="10" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="40" width="9.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="41" max="41" width="10.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="42" max="42" width="39.42578125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="43" max="43" width="20.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="44" max="44" width="40" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="45" max="45" width="12.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="46" max="46" width="21.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="47" max="48" width="9.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="49" max="49" width="16.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="50" max="50" width="14.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="51" max="51" width="12.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="52" max="52" width="51.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="53" max="53" width="40.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="54" max="54" width="32.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="55" max="55" width="10.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="56" max="56" width="15.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="57" max="57" width="14.42578125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="58" max="58" width="19" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="59" max="59" width="18.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="60" max="60" width="19.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="61" max="61" width="19.42578125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="62" max="62" width="22.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="63" max="64" width="9.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="65" max="65" width="12.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="66" max="66" width="12.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="67" max="67" width="14.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="68" max="68" width="13" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="69" max="69" width="19.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="70" max="70" width="22.85546875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="71" max="71" width="17.28515625" style="12" customWidth="1" outlineLevel="1"/>
+    <col min="72" max="72" width="15.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="73" max="73" width="14.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="74" max="74" width="13.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="75" max="75" width="14.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="76" max="76" width="11.85546875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="77" max="77" width="11.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="78" max="78" width="13.85546875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="79" max="79" width="10.85546875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="80" max="80" width="22.42578125" style="1" customWidth="1" outlineLevel="1"/>
     <col min="81" max="81" width="31.5703125" style="10" customWidth="1"/>
-    <col min="82" max="82" width="21.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="83" max="83" width="13.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="84" max="84" width="32.28515625" style="1" bestFit="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="85" max="85" width="10.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="86" max="86" width="14" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="87" max="87" width="22.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="88" max="88" width="27.28515625" style="10" customWidth="1" collapsed="1"/>
-    <col min="89" max="89" width="14.42578125" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="90" max="90" width="17.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="91" max="91" width="27.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="92" max="92" width="31.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="93" max="93" width="51.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="94" max="94" width="9.140625" style="3" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="95" max="95" width="17.140625" style="4" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="96" max="96" width="15.5703125" style="4" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="97" max="97" width="24" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="98" max="98" width="24.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="99" max="99" width="19.7109375" style="4" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="100" max="100" width="21.42578125" style="4" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="101" max="101" width="15.85546875" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="102" max="102" width="155.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="103" max="103" width="41.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="104" max="104" width="12.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="82" max="82" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="13.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="84" max="84" width="9.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="85" max="85" width="10.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="86" max="86" width="14" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="87" max="87" width="22.42578125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="88" max="88" width="27.28515625" style="10" customWidth="1"/>
+    <col min="89" max="89" width="14.42578125" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="90" max="90" width="17.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="91" max="91" width="27.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="92" max="92" width="31.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="93" max="93" width="51.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="94" max="94" width="9.140625" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="95" max="95" width="17.140625" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="96" max="96" width="15.5703125" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="97" max="97" width="24" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="98" max="98" width="24.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="99" max="99" width="19.7109375" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="100" max="100" width="31.28515625" style="4" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="101" max="101" width="15.85546875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="102" max="102" width="155.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="103" max="103" width="41.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="104" max="104" width="12.140625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="105" max="105" width="27.42578125" style="2" customWidth="1"/>
-    <col min="106" max="106" width="15.5703125" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="107" max="107" width="19.85546875" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="106" max="106" width="15.5703125" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="107" max="107" width="19.85546875" style="2" customWidth="1" outlineLevel="1"/>
     <col min="108" max="108" width="17" style="12" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="16.140625" style="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="110" max="110" width="15.140625" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="111" max="111" width="25.28515625" style="17" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="109" max="109" width="16.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="15.140625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="111" max="111" width="25.28515625" style="17" customWidth="1" outlineLevel="1"/>
     <col min="112" max="112" width="22.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="18.42578125" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="114" max="114" width="17.28515625" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="115" max="115" width="16.140625" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="116" max="116" width="14" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="113" max="113" width="18.42578125" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="114" max="114" width="17.28515625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="115" max="115" width="16.140625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="116" max="116" width="14" style="1" customWidth="1" outlineLevel="1"/>
     <col min="117" max="117" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="12" style="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="119" max="119" width="14.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="118" max="118" width="12" style="12" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="14.5703125" style="1" customWidth="1" outlineLevel="1"/>
     <col min="120" max="120" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="11" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="122" max="122" width="16.85546875" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="123" max="123" width="13.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="124" max="124" width="37.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="125" max="125" width="10.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="126" max="126" width="15.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="121" max="121" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="16.85546875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="123" max="123" width="13.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="124" max="124" width="37.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="125" max="125" width="10.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="126" max="126" width="15.140625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="127" max="127" width="25.7109375" style="10" customWidth="1"/>
-    <col min="128" max="128" width="22.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="129" max="129" width="29" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="130" max="130" width="23.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="131" max="131" width="16.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="132" max="132" width="23.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="128" max="128" width="22.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="129" max="129" width="29" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="130" max="130" width="23.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="131" max="131" width="16.42578125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="132" max="132" width="23.5703125" style="1" customWidth="1" outlineLevel="1"/>
     <col min="133" max="133" width="20.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="27.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="135" max="135" width="25.85546875" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="136" max="136" width="12" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="137" max="137" width="15.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="138" max="138" width="20.7109375" style="21" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="139" max="139" width="24.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="140" max="140" width="14.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="141" max="141" width="19" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="142" max="144" width="21.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="145" max="145" width="26.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="146" max="146" width="20.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="147" max="147" width="26.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="148" max="148" width="23.85546875" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="149" max="149" width="22.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="150" max="150" width="32.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="151" max="151" width="15.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="152" max="152" width="13.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="153" max="153" width="28" style="12" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="154" max="154" width="28.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="155" max="155" width="18.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="156" max="156" width="11.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="157" max="157" width="11.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="158" max="158" width="17.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="159" max="159" width="16.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="160" max="160" width="16.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="161" max="161" width="14.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="162" max="162" width="16.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="163" max="163" width="9.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="164" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="134" max="134" width="27.42578125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="135" max="135" width="25.85546875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="136" max="136" width="12" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="137" max="137" width="15.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="138" max="138" width="20.7109375" style="21" customWidth="1" outlineLevel="1"/>
+    <col min="139" max="139" width="24.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="140" max="140" width="14.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="141" max="141" width="19" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="142" max="144" width="21.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="145" max="145" width="26.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="146" max="146" width="20.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="147" max="147" width="26.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="148" max="148" width="23.85546875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="149" max="149" width="22.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="150" max="150" width="32.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="151" max="151" width="15.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="152" max="152" width="13.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="153" max="153" width="28" style="12" customWidth="1" outlineLevel="1"/>
+    <col min="154" max="154" width="28.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="155" max="155" width="18.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="156" max="156" width="11.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="157" max="157" width="11.42578125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="158" max="158" width="17.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="159" max="159" width="16.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="160" max="160" width="16.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="161" max="161" width="14.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="162" max="162" width="16.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="163" max="163" width="9.140625" style="1" customWidth="1"/>
+    <col min="164" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:162" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1495,714 +1512,684 @@
         <v>45</v>
       </c>
       <c r="AU1" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AV1" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AW1" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AX1" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AY1" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AZ1" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BA1" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BB1" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BC1" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BD1" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BE1" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BF1" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BG1" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BH1" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BI1" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BJ1" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BK1" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BL1" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BM1" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BN1" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BO1" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BP1" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BQ1" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BR1" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BS1" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BT1" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BU1" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="BV1" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BW1" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BX1" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BY1" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BZ1" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="CA1" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="CB1" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="CC1" s="26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="CD1" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="CE1" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="CF1" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="CG1" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="CH1" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="CI1" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="CJ1" s="26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="CK1" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="CL1" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="CM1" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="CN1" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="CO1" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="CP1" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="CQ1" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="CR1" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="CS1" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="CT1" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="CU1" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="CV1" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CW1" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CX1" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CY1" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="CZ1" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="DA1" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="DB1" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="DC1" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="DD1" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="DE1" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="DF1" s="15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="DG1" s="18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="DH1" s="18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="DI1" s="16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="DJ1" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="DK1" s="15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="DL1" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="DM1" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="DN1" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="DO1" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="DP1" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="DQ1" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="DR1" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="DS1" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="DT1" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="DU1" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="DV1" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="DW1" s="25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="DX1" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="DY1" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="DZ1" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="EA1" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="EB1" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="EC1" s="23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="ED1" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="EE1" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="EF1" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="EG1" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="EH1" s="20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="EI1" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="EJ1" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="EK1" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="EL1" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="EM1" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="EN1" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="EO1" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="EP1" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="EQ1" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="ER1" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="ES1" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="ET1" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="EU1" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="EV1" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="EW1" s="19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="EX1" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="EY1" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="EZ1" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="FA1" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="FB1" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="FC1" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="FD1" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="FE1" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="FF1" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>227</v>
+        <v>195</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2100000065</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>183</v>
+        <v>197</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="AA2" s="12">
-        <v>41974</v>
+        <v>42209</v>
       </c>
       <c r="AB2" s="12">
-        <v>42704</v>
+        <v>43304</v>
       </c>
       <c r="AC2" s="2">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AE2" s="12">
         <v>36494</v>
       </c>
       <c r="AF2" s="12">
-        <v>42705</v>
+        <v>43305</v>
       </c>
       <c r="AG2" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="AK2" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AM2" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BP2" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="BQ2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BR2" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="AK2" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="AL2" s="1" t="s">
+      <c r="BS2" s="12">
+        <v>42575</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BV2" s="1">
+        <v>7</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="BX2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="CC2" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="CE2" s="28">
+        <v>265922</v>
+      </c>
+      <c r="CF2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="CI2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="CJ2" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="CL2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="CP2" s="3">
+        <v>1.4065000000000001</v>
+      </c>
+      <c r="CQ2" s="4">
+        <v>1477726.8</v>
+      </c>
+      <c r="CR2" s="4">
+        <v>1050641.1660149307</v>
+      </c>
+      <c r="CU2" s="4">
+        <v>1050641.1660149307</v>
+      </c>
+      <c r="CV2" s="4">
+        <v>30000</v>
+      </c>
+      <c r="CW2" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="CX2" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="CY2" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="CZ2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="DA2" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="DB2" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="DC2" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="AM2" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="AS2" s="1" t="s">
+      <c r="DF2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="DG2" s="17">
+        <v>3000</v>
+      </c>
+      <c r="DH2" s="17">
+        <v>1477726.8</v>
+      </c>
+      <c r="DI2" s="2">
+        <v>1477726.8</v>
+      </c>
+      <c r="DJ2" s="2">
+        <v>1477726.8</v>
+      </c>
+      <c r="DK2" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="DL2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="DM2" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="AT2" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BR2" s="1" t="s">
+      <c r="DN2" s="12">
+        <v>42575</v>
+      </c>
+      <c r="DO2" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="BS2" s="12">
-        <v>42339</v>
-      </c>
-      <c r="BT2" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="BV2" s="1">
-        <v>12</v>
-      </c>
-      <c r="BW2" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="BX2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BY2" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="BZ2" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="CA2" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="CD2" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="CE2" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="CF2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="CG2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="CH2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="CK2" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="CL2" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="CM2" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="CN2" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="CO2" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="CP2" s="3">
-        <v>65</v>
-      </c>
-      <c r="CQ2" s="4">
-        <v>0</v>
-      </c>
-      <c r="CR2" s="4">
-        <v>0</v>
-      </c>
-      <c r="CS2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CT2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CU2" s="4">
-        <v>0</v>
-      </c>
-      <c r="CV2" s="4">
-        <v>0</v>
-      </c>
-      <c r="CW2" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="CX2" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>228</v>
-      </c>
-      <c r="CZ2" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="DA2" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="DB2" s="2">
-        <v>123456</v>
-      </c>
-      <c r="DC2" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="DD2" s="12">
-        <v>42340</v>
-      </c>
-      <c r="DE2" s="12">
-        <v>42341</v>
-      </c>
-      <c r="DF2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="DG2" s="17">
-        <v>1</v>
-      </c>
-      <c r="DH2" s="17">
-        <v>1</v>
-      </c>
-      <c r="DI2" s="2">
-        <v>0</v>
-      </c>
-      <c r="DJ2" s="2">
-        <v>0</v>
-      </c>
-      <c r="DK2" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="DL2" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="DM2" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="DN2" s="12">
-        <v>42339</v>
-      </c>
-      <c r="DO2" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="DP2" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="DQ2" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="DR2" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="DS2" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="DU2" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>230</v>
+        <v>174</v>
       </c>
       <c r="DW2" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="DX2" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="DY2" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="DZ2" s="1">
         <v>0</v>
       </c>
       <c r="EA2" s="1">
-        <v>0</v>
+        <v>1055097.1040000001</v>
       </c>
       <c r="EB2" s="1">
-        <v>0</v>
+        <v>1055097.1040000001</v>
       </c>
       <c r="EC2" s="24">
-        <v>0</v>
+        <v>1055097.1040155366</v>
       </c>
       <c r="ED2" s="1">
-        <v>0</v>
+        <v>1477726.8</v>
       </c>
       <c r="EE2" s="1">
-        <v>0</v>
+        <v>1055097.1040000001</v>
       </c>
       <c r="EF2" s="1">
-        <v>66.3</v>
+        <v>1.40056</v>
       </c>
       <c r="EH2" s="21">
-        <v>42369</v>
+        <v>42582</v>
       </c>
       <c r="EI2" s="1" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="EJ2" s="1" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="EK2" s="1">
         <v>0</v>
@@ -2219,30 +2206,751 @@
       <c r="EO2" s="1">
         <v>0</v>
       </c>
-      <c r="EV2" s="1" t="s">
+      <c r="EV2" s="1">
+        <v>1629</v>
+      </c>
+      <c r="EW2" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="EX2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="EY2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="EZ2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="FD2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="FE2" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:162" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2100000075</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA3" s="12">
+        <v>42209</v>
+      </c>
+      <c r="AB3" s="12">
+        <v>43304</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE3" s="12">
+        <v>36494</v>
+      </c>
+      <c r="AF3" s="12">
+        <v>43305</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ3" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="AK3" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AM3" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR3" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="EW2" s="12" t="s">
+      <c r="AS3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="BD3" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="FA2" s="1" t="s">
+      <c r="BF3" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="BG3" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="FB2" s="1" t="s">
+      <c r="BI3" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="FC2" s="1" t="s">
+      <c r="BO3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BR3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="BS3" s="12">
+        <v>42575</v>
+      </c>
+      <c r="BT3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BV3" s="1">
+        <v>7</v>
+      </c>
+      <c r="BW3" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="BX3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="CB3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="CC3" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="CE3" s="28">
+        <v>265922</v>
+      </c>
+      <c r="CF3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="CG3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="CH3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="CI3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="CJ3" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="CL3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="CP3" s="3">
+        <v>1.4065000000000001</v>
+      </c>
+      <c r="CQ3" s="4">
+        <v>1477726.8</v>
+      </c>
+      <c r="CR3" s="4">
+        <v>1050641.1660149307</v>
+      </c>
+      <c r="CU3" s="4">
+        <v>1050641.1660149307</v>
+      </c>
+      <c r="CV3" s="4">
+        <v>1477726.8</v>
+      </c>
+      <c r="CW3" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="CY3" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="CZ3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="DA3" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="DB3" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="DC3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="DF3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="DG3" s="17">
+        <v>2000</v>
+      </c>
+      <c r="DH3" s="17">
+        <v>1477726.8</v>
+      </c>
+      <c r="DI3" s="2">
+        <v>1477726.8</v>
+      </c>
+      <c r="DJ3" s="2">
+        <v>1477726.8</v>
+      </c>
+      <c r="DK3" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="DL3" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="DM3" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="DN3" s="12">
+        <v>42575</v>
+      </c>
+      <c r="DO3" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="DP3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="DQ3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="DR3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="DS3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="DU3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="DW3" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="DZ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="EA3" s="1">
+        <v>1055097.1040000001</v>
+      </c>
+      <c r="EB3" s="1">
+        <v>1055097.1040000001</v>
+      </c>
+      <c r="EC3" s="24">
+        <v>1055097.1040155366</v>
+      </c>
+      <c r="ED3" s="1">
+        <v>1477726.8</v>
+      </c>
+      <c r="EE3" s="1">
+        <v>1055097.1040000001</v>
+      </c>
+      <c r="EF3" s="1">
+        <v>1.40056</v>
+      </c>
+      <c r="EH3" s="21">
+        <v>42582</v>
+      </c>
+      <c r="EI3" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="EJ3" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="EK3" s="1">
+        <v>0</v>
+      </c>
+      <c r="EL3" s="1">
+        <v>0</v>
+      </c>
+      <c r="EM3" s="1">
+        <v>0</v>
+      </c>
+      <c r="EN3" s="1">
+        <v>0</v>
+      </c>
+      <c r="EO3" s="1">
+        <v>0</v>
+      </c>
+      <c r="EV3" s="1">
+        <v>1629</v>
+      </c>
+      <c r="EW3" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="EX3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="EY3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="EZ3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="FD3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="FE3" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:162" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2100000085</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA4" s="12">
+        <v>42209</v>
+      </c>
+      <c r="AB4" s="12">
+        <v>43304</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE4" s="12">
+        <v>36494</v>
+      </c>
+      <c r="AF4" s="12">
+        <v>43305</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ4" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="AK4" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AM4" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BC4" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="BF4" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="FD2" s="1" t="s">
+      <c r="BG4" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="BI4" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BO4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BP4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ4" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="FE2" s="1" t="s">
+      <c r="BR4" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="BS4" s="12">
+        <v>42575</v>
+      </c>
+      <c r="BT4" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BV4" s="1">
+        <v>7</v>
+      </c>
+      <c r="BW4" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="BX4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BY4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BZ4" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="CA4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="CB4" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="CC4" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="CD4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="CE4" s="28">
+        <v>265922</v>
+      </c>
+      <c r="CF4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="CG4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="CH4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="CI4" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="CJ4" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="CL4" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="CP4" s="3">
+        <v>1.4065000000000001</v>
+      </c>
+      <c r="CQ4" s="4">
+        <v>1477726.8</v>
+      </c>
+      <c r="CR4" s="4">
+        <v>1050641.1660149307</v>
+      </c>
+      <c r="CU4" s="4">
+        <v>1050641.1660149307</v>
+      </c>
+      <c r="CV4" s="4">
+        <v>1477726.8</v>
+      </c>
+      <c r="CW4" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="CY4" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="CZ4" s="1" t="s">
         <v>173</v>
+      </c>
+      <c r="DA4" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="DC4" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="DF4" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="DG4" s="17">
+        <v>4000</v>
+      </c>
+      <c r="DH4" s="17">
+        <v>1477726.8</v>
+      </c>
+      <c r="DI4" s="2">
+        <v>1477726.8</v>
+      </c>
+      <c r="DJ4" s="2">
+        <v>1477726.8</v>
+      </c>
+      <c r="DK4" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="DL4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="DM4" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="DN4" s="12">
+        <v>42575</v>
+      </c>
+      <c r="DO4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="DP4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="DQ4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="DR4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="DS4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="DU4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="DW4" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="DZ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="EA4" s="1">
+        <v>1055097.1040000001</v>
+      </c>
+      <c r="EB4" s="1">
+        <v>1055097.1040000001</v>
+      </c>
+      <c r="EC4" s="24">
+        <v>1055097.1040155366</v>
+      </c>
+      <c r="ED4" s="1">
+        <v>1477726.8</v>
+      </c>
+      <c r="EE4" s="1">
+        <v>1055097.1040000001</v>
+      </c>
+      <c r="EF4" s="1">
+        <v>1.40056</v>
+      </c>
+      <c r="EH4" s="21">
+        <v>42582</v>
+      </c>
+      <c r="EI4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="EJ4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="EK4" s="1">
+        <v>0</v>
+      </c>
+      <c r="EL4" s="1">
+        <v>0</v>
+      </c>
+      <c r="EM4" s="1">
+        <v>0</v>
+      </c>
+      <c r="EN4" s="1">
+        <v>0</v>
+      </c>
+      <c r="EO4" s="1">
+        <v>0</v>
+      </c>
+      <c r="EV4" s="1">
+        <v>1629</v>
+      </c>
+      <c r="EW4" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="EX4" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="EY4" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="EZ4" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="FD4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="FE4" s="1" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:FF2"/>
+  <autoFilter ref="A1:FF4"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
